--- a/excel_with_subclasses/basic/body_of_water.xlsx
+++ b/excel_with_subclasses/basic/body_of_water.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="514">
   <si>
     <t>subclass</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Q1030403</t>
   </si>
   <si>
-    <t>Q1051401</t>
-  </si>
-  <si>
     <t>Q10607894</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>Q1103796</t>
   </si>
   <si>
-    <t>Q1105442</t>
-  </si>
-  <si>
     <t>Q11078915</t>
   </si>
   <si>
@@ -73,12 +67,6 @@
     <t>Q1172903</t>
   </si>
   <si>
-    <t>Q11762356</t>
-  </si>
-  <si>
-    <t>Q11762358</t>
-  </si>
-  <si>
     <t>Q11786447</t>
   </si>
   <si>
@@ -94,9 +82,6 @@
     <t>Q11932076</t>
   </si>
   <si>
-    <t>Q12053053</t>
-  </si>
-  <si>
     <t>Q12054316</t>
   </si>
   <si>
@@ -106,39 +91,24 @@
     <t>Q1210950</t>
   </si>
   <si>
-    <t>Q1234707</t>
-  </si>
-  <si>
     <t>Q12376661</t>
   </si>
   <si>
     <t>Q124714</t>
   </si>
   <si>
-    <t>Q12487785</t>
-  </si>
-  <si>
-    <t>Q12599</t>
-  </si>
-  <si>
     <t>Q12719343</t>
   </si>
   <si>
     <t>Q127314</t>
   </si>
   <si>
-    <t>Q1286914</t>
-  </si>
-  <si>
     <t>Q1294726</t>
   </si>
   <si>
     <t>Q13049980</t>
   </si>
   <si>
-    <t>Q1310961</t>
-  </si>
-  <si>
     <t>Q1311024</t>
   </si>
   <si>
@@ -151,9 +121,6 @@
     <t>Q13218676</t>
   </si>
   <si>
-    <t>Q1335848</t>
-  </si>
-  <si>
     <t>Q13359600</t>
   </si>
   <si>
@@ -196,9 +163,6 @@
     <t>Q1553200</t>
   </si>
   <si>
-    <t>Q15709086</t>
-  </si>
-  <si>
     <t>Q15842515</t>
   </si>
   <si>
@@ -238,9 +202,6 @@
     <t>Q17165541</t>
   </si>
   <si>
-    <t>Q177380</t>
-  </si>
-  <si>
     <t>Q1792401</t>
   </si>
   <si>
@@ -256,9 +217,6 @@
     <t>Q1844833</t>
   </si>
   <si>
-    <t>Q18642275</t>
-  </si>
-  <si>
     <t>Q18870689</t>
   </si>
   <si>
@@ -289,9 +247,6 @@
     <t>Q21079327</t>
   </si>
   <si>
-    <t>Q21167371</t>
-  </si>
-  <si>
     <t>Q213926</t>
   </si>
   <si>
@@ -304,21 +259,9 @@
     <t>Q21550629</t>
   </si>
   <si>
-    <t>Q2238314</t>
-  </si>
-  <si>
-    <t>Q2264838</t>
-  </si>
-  <si>
     <t>Q2354300</t>
   </si>
   <si>
-    <t>Q23579772</t>
-  </si>
-  <si>
-    <t>Q2406037</t>
-  </si>
-  <si>
     <t>Q2411633</t>
   </si>
   <si>
@@ -334,9 +277,6 @@
     <t>Q2507626</t>
   </si>
   <si>
-    <t>Q2540532</t>
-  </si>
-  <si>
     <t>Q2570370</t>
   </si>
   <si>
@@ -352,9 +292,6 @@
     <t>Q27250</t>
   </si>
   <si>
-    <t>Q27966643</t>
-  </si>
-  <si>
     <t>Q28109822</t>
   </si>
   <si>
@@ -373,15 +310,15 @@
     <t>Q2890064</t>
   </si>
   <si>
+    <t>Q291099</t>
+  </si>
+  <si>
     <t>Q2923911</t>
   </si>
   <si>
     <t>Q2929728</t>
   </si>
   <si>
-    <t>Q2967706</t>
-  </si>
-  <si>
     <t>Q29925</t>
   </si>
   <si>
@@ -421,9 +358,6 @@
     <t>Q3400208</t>
   </si>
   <si>
-    <t>Q34038</t>
-  </si>
-  <si>
     <t>Q34338776</t>
   </si>
   <si>
@@ -436,9 +370,6 @@
     <t>Q3500933</t>
   </si>
   <si>
-    <t>Q3508956</t>
-  </si>
-  <si>
     <t>Q35116038</t>
   </si>
   <si>
@@ -448,9 +379,6 @@
     <t>Q355304</t>
   </si>
   <si>
-    <t>Q35666</t>
-  </si>
-  <si>
     <t>Q36449705</t>
   </si>
   <si>
@@ -463,12 +391,6 @@
     <t>Q373315</t>
   </si>
   <si>
-    <t>Q3761720</t>
-  </si>
-  <si>
-    <t>Q37901</t>
-  </si>
-  <si>
     <t>Q3909778</t>
   </si>
   <si>
@@ -478,9 +400,6 @@
     <t>Q3965085</t>
   </si>
   <si>
-    <t>Q40172600</t>
-  </si>
-  <si>
     <t>Q41982239</t>
   </si>
   <si>
@@ -502,9 +421,6 @@
     <t>Q459297</t>
   </si>
   <si>
-    <t>Q46966</t>
-  </si>
-  <si>
     <t>Q47053</t>
   </si>
   <si>
@@ -526,9 +442,6 @@
     <t>Q4792460</t>
   </si>
   <si>
-    <t>Q491713</t>
-  </si>
-  <si>
     <t>Q4925171</t>
   </si>
   <si>
@@ -547,12 +460,6 @@
     <t>Q5200372</t>
   </si>
   <si>
-    <t>Q5365353</t>
-  </si>
-  <si>
-    <t>Q5456507</t>
-  </si>
-  <si>
     <t>Q5533935</t>
   </si>
   <si>
@@ -580,18 +487,6 @@
     <t>Q55659167</t>
   </si>
   <si>
-    <t>Q5566160</t>
-  </si>
-  <si>
-    <t>Q5566163</t>
-  </si>
-  <si>
-    <t>Q5566166</t>
-  </si>
-  <si>
-    <t>Q558116</t>
-  </si>
-  <si>
     <t>Q5715032</t>
   </si>
   <si>
@@ -613,9 +508,6 @@
     <t>Q572211</t>
   </si>
   <si>
-    <t>Q572722</t>
-  </si>
-  <si>
     <t>Q57273768</t>
   </si>
   <si>
@@ -631,21 +523,12 @@
     <t>Q590992</t>
   </si>
   <si>
-    <t>Q5926864</t>
-  </si>
-  <si>
     <t>Q59674586</t>
   </si>
   <si>
-    <t>Q5985490</t>
-  </si>
-  <si>
     <t>Q6046150</t>
   </si>
   <si>
-    <t>Q60663471</t>
-  </si>
-  <si>
     <t>Q61298831</t>
   </si>
   <si>
@@ -679,9 +562,6 @@
     <t>Q61748425</t>
   </si>
   <si>
-    <t>Q61748725</t>
-  </si>
-  <si>
     <t>Q61749170</t>
   </si>
   <si>
@@ -697,9 +577,6 @@
     <t>Q63316629</t>
   </si>
   <si>
-    <t>Q63565252</t>
-  </si>
-  <si>
     <t>Q64502858</t>
   </si>
   <si>
@@ -796,9 +673,6 @@
     <t>Q83287935</t>
   </si>
   <si>
-    <t>Q83471</t>
-  </si>
-  <si>
     <t>Q84048354</t>
   </si>
   <si>
@@ -808,18 +682,6 @@
     <t>Q863944</t>
   </si>
   <si>
-    <t>Q867648</t>
-  </si>
-  <si>
-    <t>Q878077</t>
-  </si>
-  <si>
-    <t>Q884736</t>
-  </si>
-  <si>
-    <t>Q88480</t>
-  </si>
-  <si>
     <t>Q891537</t>
   </si>
   <si>
@@ -835,18 +697,12 @@
     <t>Q923791</t>
   </si>
   <si>
-    <t>Q930710</t>
-  </si>
-  <si>
     <t>Q9311910</t>
   </si>
   <si>
     <t>Q93441425</t>
   </si>
   <si>
-    <t>Q95348900</t>
-  </si>
-  <si>
     <t>Q992837</t>
   </si>
   <si>
@@ -856,9 +712,6 @@
     <t>водный мост</t>
   </si>
   <si>
-    <t>Черноморские проливы</t>
-  </si>
-  <si>
     <t>sacrificial spring</t>
   </si>
   <si>
@@ -871,9 +724,6 @@
     <t>временный весенний водоём</t>
   </si>
   <si>
-    <t>cataract</t>
-  </si>
-  <si>
     <t>Free Life Pond</t>
   </si>
   <si>
@@ -898,12 +748,6 @@
     <t>Лох</t>
   </si>
   <si>
-    <t>valley glacier</t>
-  </si>
-  <si>
-    <t>mountain glacier</t>
-  </si>
-  <si>
     <t>Mszar</t>
   </si>
   <si>
@@ -919,48 +763,30 @@
     <t>Llau</t>
   </si>
   <si>
-    <t>искусственный водопад</t>
-  </si>
-  <si>
     <t>горная река</t>
   </si>
   <si>
     <t>канал</t>
   </si>
   <si>
-    <t>heathland pond</t>
-  </si>
-  <si>
     <t>искусственный водоём</t>
   </si>
   <si>
     <t>родник</t>
   </si>
   <si>
-    <t>Tidewater glacier</t>
-  </si>
-  <si>
-    <t>Ледяной щит</t>
-  </si>
-  <si>
     <t>водный туннель</t>
   </si>
   <si>
     <t>Coniferous swamp</t>
   </si>
   <si>
-    <t>полярная шапка</t>
-  </si>
-  <si>
     <t>Зыбун</t>
   </si>
   <si>
     <t>recolón</t>
   </si>
   <si>
-    <t>Ледопад</t>
-  </si>
-  <si>
     <t>тугаи</t>
   </si>
   <si>
@@ -973,9 +799,6 @@
     <t>Акведуки Древнего Рима</t>
   </si>
   <si>
-    <t>Гидротермальные источники срединно-океанических хребтов</t>
-  </si>
-  <si>
     <t>верховое болото</t>
   </si>
   <si>
@@ -1018,9 +841,6 @@
     <t>гельта</t>
   </si>
   <si>
-    <t>Moats</t>
-  </si>
-  <si>
     <t>rivulet</t>
   </si>
   <si>
@@ -1060,9 +880,6 @@
     <t>broadening</t>
   </si>
   <si>
-    <t>Геотермальный источник</t>
-  </si>
-  <si>
     <t>Kunstgraben</t>
   </si>
   <si>
@@ -1078,9 +895,6 @@
     <t>Перекат</t>
   </si>
   <si>
-    <t>Piedmont glacier</t>
-  </si>
-  <si>
     <t>акведук</t>
   </si>
   <si>
@@ -1111,9 +925,6 @@
     <t>пересыхающая река</t>
   </si>
   <si>
-    <t>Glaciers of Alaska</t>
-  </si>
-  <si>
     <t>Морской лёд</t>
   </si>
   <si>
@@ -1126,21 +937,9 @@
     <t>бывший водный объект</t>
   </si>
   <si>
-    <t>mudpot</t>
-  </si>
-  <si>
-    <t>Gat</t>
-  </si>
-  <si>
     <t>Подводное соляное озеро</t>
   </si>
   <si>
-    <t>cirque glacier</t>
-  </si>
-  <si>
-    <t>Ледовый язык</t>
-  </si>
-  <si>
     <t>Переходные болота</t>
   </si>
   <si>
@@ -1156,9 +955,6 @@
     <t>акватория</t>
   </si>
   <si>
-    <t>ice stream</t>
-  </si>
-  <si>
     <t>mountain stream</t>
   </si>
   <si>
@@ -1174,9 +970,6 @@
     <t>tidal creek</t>
   </si>
   <si>
-    <t>hot lake</t>
-  </si>
-  <si>
     <t>sewerage aqueduct</t>
   </si>
   <si>
@@ -1195,15 +988,15 @@
     <t>ditch</t>
   </si>
   <si>
+    <t>Stream pool</t>
+  </si>
+  <si>
     <t>бывший залив</t>
   </si>
   <si>
     <t>glacial stream</t>
   </si>
   <si>
-    <t>coastal waterfall</t>
-  </si>
-  <si>
     <t>солёные марши</t>
   </si>
   <si>
@@ -1240,9 +1033,6 @@
     <t>pouhon</t>
   </si>
   <si>
-    <t>водопад</t>
-  </si>
-  <si>
     <t>thermal spring</t>
   </si>
   <si>
@@ -1255,9 +1045,6 @@
     <t>detention basin</t>
   </si>
   <si>
-    <t>Южная полярная шапка (Марс)</t>
-  </si>
-  <si>
     <t>формы побережья</t>
   </si>
   <si>
@@ -1267,9 +1054,6 @@
     <t>водоток</t>
   </si>
   <si>
-    <t>ледник</t>
-  </si>
-  <si>
     <t>торфяник</t>
   </si>
   <si>
@@ -1282,12 +1066,6 @@
     <t>балка</t>
   </si>
   <si>
-    <t>debris covered glacier</t>
-  </si>
-  <si>
-    <t>пролив</t>
-  </si>
-  <si>
     <t>Священный источник</t>
   </si>
   <si>
@@ -1297,9 +1075,6 @@
     <t>Vauclusian spring</t>
   </si>
   <si>
-    <t>Japan's Top 100 Waterfalls</t>
-  </si>
-  <si>
     <t>navigation channel</t>
   </si>
   <si>
@@ -1321,9 +1096,6 @@
     <t>кяриз</t>
   </si>
   <si>
-    <t>Шельфовый ледник</t>
-  </si>
-  <si>
     <t>эстуарий</t>
   </si>
   <si>
@@ -1339,9 +1111,6 @@
     <t>рукав</t>
   </si>
   <si>
-    <t>зунд</t>
-  </si>
-  <si>
     <t>Blanket bog</t>
   </si>
   <si>
@@ -1360,12 +1129,6 @@
     <t>Cypress dome</t>
   </si>
   <si>
-    <t>Glaciers of New Zealand</t>
-  </si>
-  <si>
-    <t>Fjords and channels of Chile</t>
-  </si>
-  <si>
     <t>Geo</t>
   </si>
   <si>
@@ -1393,18 +1156,6 @@
     <t>естественный водоток</t>
   </si>
   <si>
-    <t>Glaciers of Bhutan</t>
-  </si>
-  <si>
-    <t>glaciers on Mars</t>
-  </si>
-  <si>
-    <t>Ледники Грузии</t>
-  </si>
-  <si>
-    <t>firth</t>
-  </si>
-  <si>
     <t>Azarbe</t>
   </si>
   <si>
@@ -1426,9 +1177,6 @@
     <t>Antecedent drainage stream</t>
   </si>
   <si>
-    <t>hanging glacier</t>
-  </si>
-  <si>
     <t>branch</t>
   </si>
   <si>
@@ -1444,21 +1192,12 @@
     <t>karst spring</t>
   </si>
   <si>
-    <t>группа озёр</t>
-  </si>
-  <si>
     <t>ледяной покров</t>
   </si>
   <si>
-    <t>ice piedmont</t>
-  </si>
-  <si>
     <t>interdunal wetland</t>
   </si>
   <si>
-    <t>Tiered waterfall</t>
-  </si>
-  <si>
     <t>Important Wetlands in Australia</t>
   </si>
   <si>
@@ -1492,9 +1231,6 @@
     <t>Palsa mire</t>
   </si>
   <si>
-    <t>Permanent glacier</t>
-  </si>
-  <si>
     <t>Fennoscandian deciduous swamp woods</t>
   </si>
   <si>
@@ -1510,9 +1246,6 @@
     <t>manigua</t>
   </si>
   <si>
-    <t>ручей</t>
-  </si>
-  <si>
     <t>bonal</t>
   </si>
   <si>
@@ -1609,9 +1342,6 @@
     <t>back channel</t>
   </si>
   <si>
-    <t>гейзер</t>
-  </si>
-  <si>
     <t>lade</t>
   </si>
   <si>
@@ -1621,15 +1351,6 @@
     <t>континентальные воды</t>
   </si>
   <si>
-    <t>Ледяная шапка</t>
-  </si>
-  <si>
-    <t>rock glacier</t>
-  </si>
-  <si>
-    <t>Ров</t>
-  </si>
-  <si>
     <t>Bolongs</t>
   </si>
   <si>
@@ -1645,18 +1366,12 @@
     <t>полынья</t>
   </si>
   <si>
-    <t>Martian geyser</t>
-  </si>
-  <si>
     <t>Rojst</t>
   </si>
   <si>
     <t>section of a body of water</t>
   </si>
   <si>
-    <t>alpine glacier</t>
-  </si>
-  <si>
     <t>Spring box</t>
   </si>
   <si>
@@ -1666,9 +1381,6 @@
     <t>Q474_акведук</t>
   </si>
   <si>
-    <t>Q37901_пролив</t>
-  </si>
-  <si>
     <t>Q124714_родник</t>
   </si>
   <si>
@@ -1681,9 +1393,6 @@
     <t>Q15324_водный объект</t>
   </si>
   <si>
-    <t>Q34038_водопад</t>
-  </si>
-  <si>
     <t>Q85842470_искусственный пруд</t>
   </si>
   <si>
@@ -1696,21 +1405,12 @@
     <t>Q35116038_формы побережья</t>
   </si>
   <si>
-    <t>Q35666_ледник</t>
-  </si>
-  <si>
     <t>Q21550629_бывший водный объект</t>
   </si>
   <si>
     <t>Q1437299_поток</t>
   </si>
   <si>
-    <t>Q16710063_oligotrophic lake</t>
-  </si>
-  <si>
-    <t>Q878077_Ледяная шапка</t>
-  </si>
-  <si>
     <t>Q514050_Низинные болота</t>
   </si>
   <si>
@@ -1729,9 +1429,6 @@
     <t>Q55965244_палеоозеро</t>
   </si>
   <si>
-    <t>Q867648_Гидротермальные источники срединно-океанических хребтов</t>
-  </si>
-  <si>
     <t>Q373315_балка,Q55659107_intermittent natural watercourse</t>
   </si>
   <si>
@@ -1741,9 +1438,6 @@
     <t>Q2478921_сток</t>
   </si>
   <si>
-    <t>Q88480_Ров</t>
-  </si>
-  <si>
     <t>Q47521_поток</t>
   </si>
   <si>
@@ -1780,13 +1474,7 @@
     <t>Q59674586_ледяной покров</t>
   </si>
   <si>
-    <t>Q34038_водопад,Q1140845_подземная река</t>
-  </si>
-  <si>
-    <t>Q177380_Геотермальный источник</t>
-  </si>
-  <si>
-    <t>Q46966_Шельфовый ледник</t>
+    <t>Q1140845_подземная река</t>
   </si>
   <si>
     <t>Q166735_лесное болото</t>
@@ -1801,6 +1489,9 @@
     <t>Q19683138_Ramsar site</t>
   </si>
   <si>
+    <t>Q3177968_пруд</t>
+  </si>
+  <si>
     <t>Q491713_зунд,Q21550629_бывший водный объект</t>
   </si>
   <si>
@@ -1810,9 +1501,6 @@
     <t>Q22953352_Q22953352</t>
   </si>
   <si>
-    <t>Q1286914_полярная шапка</t>
-  </si>
-  <si>
     <t>Q55659167_естественный водоток</t>
   </si>
   <si>
@@ -1868,9 +1556,6 @@
   </si>
   <si>
     <t>Q47521_поток,Q1210950_канал</t>
-  </si>
-  <si>
-    <t>Q83471_гейзер</t>
   </si>
 </sst>
 </file>
@@ -2228,7 +1913,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C276"/>
+  <dimension ref="A1:C228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2250,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>548</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2261,10 +1946,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>549</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2272,10 +1957,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>550</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2283,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2294,10 +1979,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>552</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2305,10 +1990,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
-        <v>553</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2316,10 +2001,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>554</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2327,10 +2012,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="C9" t="s">
-        <v>555</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2338,10 +2023,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>556</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2349,10 +2034,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
-        <v>552</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2360,10 +2045,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="C12" t="s">
-        <v>554</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2371,10 +2056,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="C13" t="s">
-        <v>557</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2382,10 +2067,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>558</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2393,10 +2078,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>557</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2404,10 +2089,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
-        <v>559</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2415,10 +2100,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="C17" t="s">
-        <v>554</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2426,10 +2111,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="C18" t="s">
-        <v>560</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2437,10 +2122,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="C19" t="s">
-        <v>560</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2448,10 +2133,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="C20" t="s">
-        <v>552</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2459,10 +2144,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>241</v>
       </c>
       <c r="C21" t="s">
-        <v>561</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2470,10 +2155,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="C22" t="s">
-        <v>551</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2481,10 +2166,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="C23" t="s">
-        <v>551</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2492,10 +2177,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="C24" t="s">
-        <v>562</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2503,10 +2188,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="C25" t="s">
-        <v>555</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2514,10 +2199,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="C26" t="s">
-        <v>551</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2525,10 +2210,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="C27" t="s">
-        <v>548</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2536,10 +2221,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="C28" t="s">
-        <v>553</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2547,10 +2232,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="C29" t="s">
-        <v>563</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2558,10 +2243,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="C30" t="s">
-        <v>554</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2569,10 +2254,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s">
-        <v>554</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2580,10 +2265,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="C32" t="s">
-        <v>560</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2591,10 +2276,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="C33" t="s">
-        <v>564</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2602,10 +2287,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="C34" t="s">
-        <v>548</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2613,10 +2298,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="C35" t="s">
-        <v>565</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2624,10 +2309,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="C36" t="s">
-        <v>564</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2635,10 +2320,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="C37" t="s">
-        <v>566</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2646,10 +2331,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="C38" t="s">
-        <v>567</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2657,10 +2342,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="C39" t="s">
-        <v>560</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2668,10 +2353,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="C40" t="s">
-        <v>568</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2679,10 +2364,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="C41" t="s">
-        <v>569</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2690,10 +2375,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="C42" t="s">
-        <v>570</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2701,10 +2386,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="C43" t="s">
-        <v>549</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2712,10 +2397,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="C44" t="s">
-        <v>571</v>
+        <v>473</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2723,10 +2408,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="C45" t="s">
-        <v>566</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2734,10 +2419,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="C46" t="s">
-        <v>569</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2745,10 +2430,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="C47" t="s">
-        <v>572</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2756,10 +2441,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="C48" t="s">
-        <v>551</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2767,10 +2452,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="C49" t="s">
-        <v>551</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2778,10 +2463,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="C50" t="s">
-        <v>573</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2789,10 +2474,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="C51" t="s">
-        <v>554</v>
+        <v>474</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2800,10 +2485,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="C52" t="s">
-        <v>548</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2811,10 +2496,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="C53" t="s">
-        <v>548</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2822,10 +2507,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="C54" t="s">
-        <v>565</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2833,10 +2518,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="C55" t="s">
-        <v>574</v>
+        <v>456</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2844,10 +2529,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="C56" t="s">
-        <v>549</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2855,10 +2540,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="C57" t="s">
-        <v>551</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2866,10 +2551,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="C58" t="s">
-        <v>554</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2877,10 +2562,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="C59" t="s">
-        <v>575</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2888,10 +2573,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="C60" t="s">
-        <v>576</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2899,10 +2584,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="C61" t="s">
-        <v>568</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2910,10 +2595,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="C62" t="s">
-        <v>577</v>
+        <v>453</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2921,10 +2606,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="C63" t="s">
-        <v>576</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2932,10 +2617,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="C64" t="s">
-        <v>578</v>
+        <v>479</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2943,10 +2628,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="C65" t="s">
-        <v>579</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2954,10 +2639,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="C66" t="s">
-        <v>552</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2965,10 +2650,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="C67" t="s">
-        <v>552</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2976,10 +2661,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="C68" t="s">
-        <v>554</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2987,10 +2672,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="C69" t="s">
-        <v>548</v>
+        <v>482</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2998,10 +2683,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="C70" t="s">
-        <v>554</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3009,10 +2694,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="C71" t="s">
-        <v>576</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3020,10 +2705,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="C72" t="s">
-        <v>553</v>
+        <v>483</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3031,10 +2716,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="C73" t="s">
-        <v>551</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3042,10 +2727,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="C74" t="s">
-        <v>579</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3053,10 +2738,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="C75" t="s">
-        <v>548</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3064,10 +2749,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="C76" t="s">
-        <v>580</v>
+        <v>485</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3075,10 +2760,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="C77" t="s">
-        <v>581</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3086,10 +2771,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="C78" t="s">
-        <v>582</v>
+        <v>479</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3097,10 +2782,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="C79" t="s">
-        <v>560</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3108,10 +2793,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="C80" t="s">
-        <v>548</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3119,10 +2804,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="C81" t="s">
-        <v>583</v>
+        <v>466</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3130,10 +2815,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="C82" t="s">
-        <v>552</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3141,10 +2826,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="C83" t="s">
-        <v>584</v>
+        <v>487</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3152,10 +2837,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="C84" t="s">
-        <v>576</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3163,10 +2848,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="C85" t="s">
-        <v>548</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3174,10 +2859,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="C86" t="s">
-        <v>585</v>
+        <v>474</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3185,10 +2870,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="C87" t="s">
-        <v>567</v>
+        <v>488</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3196,10 +2881,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="C88" t="s">
-        <v>551</v>
+        <v>487</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3207,10 +2892,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="C89" t="s">
-        <v>586</v>
+        <v>463</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3218,10 +2903,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="C90" t="s">
-        <v>560</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3229,10 +2914,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="C91" t="s">
-        <v>587</v>
+        <v>454</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3240,10 +2925,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="C92" t="s">
-        <v>588</v>
+        <v>487</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3251,10 +2936,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="C93" t="s">
-        <v>581</v>
+        <v>489</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3262,10 +2947,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="C94" t="s">
-        <v>554</v>
+        <v>453</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3273,10 +2958,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="C95" t="s">
-        <v>589</v>
+        <v>490</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3284,10 +2969,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="C96" t="s">
-        <v>550</v>
+        <v>477</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3295,10 +2980,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="C97" t="s">
-        <v>554</v>
+        <v>491</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3306,10 +2991,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="C98" t="s">
-        <v>560</v>
+        <v>492</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3317,10 +3002,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="C99" t="s">
-        <v>590</v>
+        <v>474</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3328,10 +3013,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="C100" t="s">
-        <v>566</v>
+        <v>493</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3339,10 +3024,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="C101" t="s">
-        <v>548</v>
+        <v>453</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3350,10 +3035,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="C102" t="s">
-        <v>591</v>
+        <v>494</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3361,10 +3046,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="C103" t="s">
-        <v>562</v>
+        <v>460</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3372,10 +3057,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="C104" t="s">
-        <v>554</v>
+        <v>478</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3383,10 +3068,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="C105" t="s">
-        <v>560</v>
+        <v>479</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3394,10 +3079,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="C106" t="s">
-        <v>576</v>
+        <v>458</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3405,10 +3090,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="C107" t="s">
-        <v>592</v>
+        <v>457</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3416,10 +3101,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="C108" t="s">
-        <v>591</v>
+        <v>487</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3427,10 +3112,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="C109" t="s">
-        <v>561</v>
+        <v>472</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3438,10 +3123,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="C110" t="s">
-        <v>548</v>
+        <v>455</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3449,10 +3134,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="C111" t="s">
-        <v>589</v>
+        <v>458</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3460,10 +3145,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="C112" t="s">
-        <v>549</v>
+        <v>455</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3471,10 +3156,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="C113" t="s">
-        <v>591</v>
+        <v>455</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3482,10 +3167,10 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="C114" t="s">
-        <v>593</v>
+        <v>458</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3493,10 +3178,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="C115" t="s">
-        <v>548</v>
+        <v>456</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3504,10 +3189,10 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="C116" t="s">
-        <v>594</v>
+        <v>472</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3515,10 +3200,10 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="C117" t="s">
-        <v>579</v>
+        <v>458</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3526,10 +3211,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="C118" t="s">
-        <v>595</v>
+        <v>495</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3537,10 +3222,10 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="C119" t="s">
-        <v>576</v>
+        <v>481</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3548,10 +3233,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="C120" t="s">
-        <v>555</v>
+        <v>456</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3559,10 +3244,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="C121" t="s">
-        <v>596</v>
+        <v>455</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3570,10 +3255,10 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="C122" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3581,10 +3266,10 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="C123" t="s">
-        <v>597</v>
+        <v>484</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3592,10 +3277,10 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="C124" t="s">
-        <v>557</v>
+        <v>497</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3603,10 +3288,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="C125" t="s">
-        <v>580</v>
+        <v>458</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3614,10 +3299,10 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="C126" t="s">
-        <v>581</v>
+        <v>478</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3625,10 +3310,10 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="C127" t="s">
-        <v>554</v>
+        <v>479</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3636,10 +3321,10 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="C128" t="s">
-        <v>553</v>
+        <v>458</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3647,10 +3332,10 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="C129" t="s">
-        <v>591</v>
+        <v>476</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3658,10 +3343,10 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="C130" t="s">
-        <v>573</v>
+        <v>453</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3669,10 +3354,10 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="C131" t="s">
-        <v>551</v>
+        <v>457</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3680,10 +3365,10 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="C132" t="s">
-        <v>554</v>
+        <v>458</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3691,10 +3376,10 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C133" t="s">
-        <v>551</v>
+        <v>498</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3702,10 +3387,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="C134" t="s">
-        <v>554</v>
+        <v>458</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3713,10 +3398,10 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="C135" t="s">
-        <v>551</v>
+        <v>477</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3724,10 +3409,10 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>410</v>
+        <v>293</v>
       </c>
       <c r="C136" t="s">
-        <v>554</v>
+        <v>499</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3735,10 +3420,10 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="C137" t="s">
-        <v>552</v>
+        <v>463</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3746,10 +3431,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>412</v>
+        <v>269</v>
       </c>
       <c r="C138" t="s">
-        <v>573</v>
+        <v>495</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3757,10 +3442,10 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="C139" t="s">
-        <v>598</v>
+        <v>458</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3768,10 +3453,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="C140" t="s">
-        <v>554</v>
+        <v>458</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3779,10 +3464,10 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="C141" t="s">
-        <v>599</v>
+        <v>466</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3790,10 +3475,10 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="C142" t="s">
-        <v>583</v>
+        <v>476</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3801,10 +3486,10 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="C143" t="s">
-        <v>587</v>
+        <v>477</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3812,10 +3497,10 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="C144" t="s">
-        <v>552</v>
+        <v>474</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3823,10 +3508,10 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="C145" t="s">
-        <v>551</v>
+        <v>466</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3834,10 +3519,10 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="C146" t="s">
-        <v>600</v>
+        <v>487</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3845,10 +3530,10 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="C147" t="s">
-        <v>586</v>
+        <v>500</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3856,10 +3541,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="C148" t="s">
-        <v>560</v>
+        <v>500</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3867,10 +3552,10 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="C149" t="s">
-        <v>553</v>
+        <v>456</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3878,10 +3563,10 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="C150" t="s">
-        <v>601</v>
+        <v>479</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3889,10 +3574,10 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="C151" t="s">
-        <v>554</v>
+        <v>501</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3900,10 +3585,10 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="C152" t="s">
-        <v>580</v>
+        <v>458</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3911,10 +3596,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="C153" t="s">
-        <v>555</v>
+        <v>502</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3922,10 +3607,10 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="C154" t="s">
-        <v>581</v>
+        <v>503</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3933,10 +3618,10 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="C155" t="s">
-        <v>554</v>
+        <v>453</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3944,10 +3629,10 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="C156" t="s">
-        <v>578</v>
+        <v>477</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3955,10 +3640,10 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>431</v>
+        <v>381</v>
       </c>
       <c r="C157" t="s">
-        <v>548</v>
+        <v>504</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3966,10 +3651,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
       <c r="C158" t="s">
-        <v>553</v>
+        <v>504</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3977,10 +3662,10 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="C159" t="s">
-        <v>554</v>
+        <v>504</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3988,10 +3673,10 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
       <c r="C160" t="s">
-        <v>602</v>
+        <v>504</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3999,10 +3684,10 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>435</v>
+        <v>385</v>
       </c>
       <c r="C161" t="s">
-        <v>560</v>
+        <v>504</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4010,10 +3695,10 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C162" t="s">
-        <v>554</v>
+        <v>474</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4021,10 +3706,10 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C163" t="s">
-        <v>579</v>
+        <v>495</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4032,10 +3717,10 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="C164" t="s">
-        <v>603</v>
+        <v>453</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4043,10 +3728,10 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="C165" t="s">
-        <v>561</v>
+        <v>458</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4054,10 +3739,10 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>328</v>
+        <v>390</v>
       </c>
       <c r="C166" t="s">
-        <v>599</v>
+        <v>469</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4065,10 +3750,10 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="C167" t="s">
-        <v>554</v>
+        <v>455</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4076,10 +3761,10 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="C168" t="s">
-        <v>554</v>
+        <v>458</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4087,10 +3772,10 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="C169" t="s">
-        <v>550</v>
+        <v>456</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4098,10 +3783,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="C170" t="s">
-        <v>566</v>
+        <v>456</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4109,10 +3794,10 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="C171" t="s">
-        <v>578</v>
+        <v>490</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4120,10 +3805,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
       <c r="C172" t="s">
-        <v>579</v>
+        <v>468</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4131,10 +3816,10 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="C173" t="s">
-        <v>576</v>
+        <v>505</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4142,10 +3827,10 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C174" t="s">
-        <v>566</v>
+        <v>505</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4153,10 +3838,10 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="C175" t="s">
-        <v>591</v>
+        <v>466</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4164,10 +3849,10 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="C176" t="s">
-        <v>560</v>
+        <v>465</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4175,10 +3860,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="C177" t="s">
-        <v>550</v>
+        <v>465</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4186,10 +3871,10 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="C178" t="s">
-        <v>604</v>
+        <v>465</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4197,10 +3882,10 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="C179" t="s">
-        <v>604</v>
+        <v>466</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4208,10 +3893,10 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="C180" t="s">
-        <v>552</v>
+        <v>466</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4219,10 +3904,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="C181" t="s">
-        <v>581</v>
+        <v>483</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4230,10 +3915,10 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>454</v>
+        <v>406</v>
       </c>
       <c r="C182" t="s">
-        <v>605</v>
+        <v>506</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4241,10 +3926,10 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="C183" t="s">
-        <v>554</v>
+        <v>458</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4252,10 +3937,10 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
+        <v>408</v>
+      </c>
+      <c r="C184" t="s">
         <v>456</v>
-      </c>
-      <c r="C184" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4263,10 +3948,10 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="C185" t="s">
-        <v>607</v>
+        <v>487</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4274,10 +3959,10 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="C186" t="s">
-        <v>548</v>
+        <v>456</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4285,10 +3970,10 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="C187" t="s">
-        <v>560</v>
+        <v>455</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4296,10 +3981,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>460</v>
+        <v>412</v>
       </c>
       <c r="C188" t="s">
-        <v>560</v>
+        <v>507</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4307,10 +3992,10 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>461</v>
+        <v>413</v>
       </c>
       <c r="C189" t="s">
-        <v>560</v>
+        <v>453</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4318,10 +4003,10 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="C190" t="s">
-        <v>550</v>
+        <v>465</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4329,10 +4014,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>463</v>
+        <v>415</v>
       </c>
       <c r="C191" t="s">
-        <v>579</v>
+        <v>508</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4340,10 +4025,10 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="C192" t="s">
-        <v>608</v>
+        <v>477</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4351,10 +4036,10 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>465</v>
+        <v>417</v>
       </c>
       <c r="C193" t="s">
-        <v>608</v>
+        <v>453</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4362,10 +4047,10 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>466</v>
+        <v>418</v>
       </c>
       <c r="C194" t="s">
-        <v>608</v>
+        <v>458</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4373,10 +4058,10 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>467</v>
+        <v>419</v>
       </c>
       <c r="C195" t="s">
-        <v>608</v>
+        <v>509</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4384,10 +4069,10 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>468</v>
+        <v>420</v>
       </c>
       <c r="C196" t="s">
-        <v>608</v>
+        <v>509</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4395,10 +4080,10 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>469</v>
+        <v>421</v>
       </c>
       <c r="C197" t="s">
-        <v>576</v>
+        <v>453</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4406,10 +4091,10 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>470</v>
+        <v>422</v>
       </c>
       <c r="C198" t="s">
-        <v>560</v>
+        <v>510</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4417,10 +4102,10 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>471</v>
+        <v>423</v>
       </c>
       <c r="C199" t="s">
-        <v>599</v>
+        <v>474</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4428,10 +4113,10 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>472</v>
+        <v>424</v>
       </c>
       <c r="C200" t="s">
-        <v>548</v>
+        <v>511</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4439,10 +4124,10 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>473</v>
+        <v>425</v>
       </c>
       <c r="C201" t="s">
-        <v>554</v>
+        <v>512</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4450,10 +4135,10 @@
         <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
       <c r="C202" t="s">
-        <v>569</v>
+        <v>481</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4461,10 +4146,10 @@
         <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>475</v>
+        <v>427</v>
       </c>
       <c r="C203" t="s">
-        <v>551</v>
+        <v>458</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4472,10 +4157,10 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>476</v>
+        <v>428</v>
       </c>
       <c r="C204" t="s">
-        <v>583</v>
+        <v>455</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4483,10 +4168,10 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>477</v>
+        <v>429</v>
       </c>
       <c r="C205" t="s">
-        <v>554</v>
+        <v>456</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4494,10 +4179,10 @@
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="C206" t="s">
-        <v>560</v>
+        <v>456</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4505,10 +4190,10 @@
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>479</v>
+        <v>431</v>
       </c>
       <c r="C207" t="s">
-        <v>552</v>
+        <v>466</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4516,10 +4201,10 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>480</v>
+        <v>432</v>
       </c>
       <c r="C208" t="s">
-        <v>555</v>
+        <v>464</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4527,10 +4212,10 @@
         <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>481</v>
+        <v>433</v>
       </c>
       <c r="C209" t="s">
-        <v>552</v>
+        <v>458</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4538,10 +4223,10 @@
         <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
       <c r="C210" t="s">
-        <v>594</v>
+        <v>487</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4549,10 +4234,10 @@
         <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
       <c r="C211" t="s">
-        <v>568</v>
+        <v>474</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4560,10 +4245,10 @@
         <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>484</v>
+        <v>436</v>
       </c>
       <c r="C212" t="s">
-        <v>609</v>
+        <v>455</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4571,10 +4256,10 @@
         <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>485</v>
+        <v>437</v>
       </c>
       <c r="C213" t="s">
-        <v>609</v>
+        <v>479</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4582,10 +4267,10 @@
         <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>486</v>
+        <v>438</v>
       </c>
       <c r="C214" t="s">
-        <v>566</v>
+        <v>458</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4593,10 +4278,10 @@
         <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>487</v>
+        <v>439</v>
       </c>
       <c r="C215" t="s">
-        <v>565</v>
+        <v>453</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4604,10 +4289,10 @@
         <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
       <c r="C216" t="s">
-        <v>565</v>
+        <v>453</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4615,10 +4300,10 @@
         <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>489</v>
+        <v>441</v>
       </c>
       <c r="C217" t="s">
-        <v>565</v>
+        <v>513</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4626,10 +4311,10 @@
         <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>490</v>
+        <v>442</v>
       </c>
       <c r="C218" t="s">
-        <v>566</v>
+        <v>479</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4637,10 +4322,10 @@
         <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>491</v>
+        <v>443</v>
       </c>
       <c r="C219" t="s">
-        <v>566</v>
+        <v>472</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4648,10 +4333,10 @@
         <v>221</v>
       </c>
       <c r="B220" t="s">
-        <v>492</v>
+        <v>444</v>
       </c>
       <c r="C220" t="s">
-        <v>560</v>
+        <v>457</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4659,10 +4344,10 @@
         <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>493</v>
+        <v>445</v>
       </c>
       <c r="C221" t="s">
-        <v>585</v>
+        <v>458</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4670,10 +4355,10 @@
         <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>494</v>
+        <v>446</v>
       </c>
       <c r="C222" t="s">
-        <v>610</v>
+        <v>457</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4681,10 +4366,10 @@
         <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>495</v>
+        <v>447</v>
       </c>
       <c r="C223" t="s">
-        <v>554</v>
+        <v>456</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4692,10 +4377,10 @@
         <v>225</v>
       </c>
       <c r="B224" t="s">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="C224" t="s">
-        <v>552</v>
+        <v>453</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4703,10 +4388,10 @@
         <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>497</v>
+        <v>449</v>
       </c>
       <c r="C225" t="s">
-        <v>591</v>
+        <v>458</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4714,10 +4399,10 @@
         <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>498</v>
+        <v>450</v>
       </c>
       <c r="C226" t="s">
-        <v>576</v>
+        <v>456</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4725,10 +4410,10 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>499</v>
+        <v>451</v>
       </c>
       <c r="C227" t="s">
-        <v>552</v>
+        <v>458</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4736,538 +4421,10 @@
         <v>229</v>
       </c>
       <c r="B228" t="s">
-        <v>500</v>
+        <v>452</v>
       </c>
       <c r="C228" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" t="s">
-        <v>230</v>
-      </c>
-      <c r="B229" t="s">
-        <v>501</v>
-      </c>
-      <c r="C229" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" t="s">
-        <v>231</v>
-      </c>
-      <c r="B230" t="s">
-        <v>502</v>
-      </c>
-      <c r="C230" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" t="s">
-        <v>232</v>
-      </c>
-      <c r="B231" t="s">
-        <v>503</v>
-      </c>
-      <c r="C231" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" t="s">
-        <v>233</v>
-      </c>
-      <c r="B232" t="s">
-        <v>504</v>
-      </c>
-      <c r="C232" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" t="s">
-        <v>234</v>
-      </c>
-      <c r="B233" t="s">
-        <v>505</v>
-      </c>
-      <c r="C233" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" t="s">
-        <v>235</v>
-      </c>
-      <c r="B234" t="s">
-        <v>506</v>
-      </c>
-      <c r="C234" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" t="s">
-        <v>236</v>
-      </c>
-      <c r="B235" t="s">
-        <v>507</v>
-      </c>
-      <c r="C235" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" t="s">
-        <v>237</v>
-      </c>
-      <c r="B236" t="s">
-        <v>508</v>
-      </c>
-      <c r="C236" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" t="s">
-        <v>238</v>
-      </c>
-      <c r="B237" t="s">
-        <v>509</v>
-      </c>
-      <c r="C237" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" t="s">
-        <v>239</v>
-      </c>
-      <c r="B238" t="s">
-        <v>510</v>
-      </c>
-      <c r="C238" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" t="s">
-        <v>240</v>
-      </c>
-      <c r="B239" t="s">
-        <v>511</v>
-      </c>
-      <c r="C239" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" t="s">
-        <v>241</v>
-      </c>
-      <c r="B240" t="s">
-        <v>512</v>
-      </c>
-      <c r="C240" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" t="s">
-        <v>242</v>
-      </c>
-      <c r="B241" t="s">
-        <v>513</v>
-      </c>
-      <c r="C241" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" t="s">
-        <v>243</v>
-      </c>
-      <c r="B242" t="s">
-        <v>514</v>
-      </c>
-      <c r="C242" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" t="s">
-        <v>244</v>
-      </c>
-      <c r="B243" t="s">
-        <v>515</v>
-      </c>
-      <c r="C243" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" t="s">
-        <v>245</v>
-      </c>
-      <c r="B244" t="s">
-        <v>516</v>
-      </c>
-      <c r="C244" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" t="s">
-        <v>246</v>
-      </c>
-      <c r="B245" t="s">
-        <v>517</v>
-      </c>
-      <c r="C245" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" t="s">
-        <v>247</v>
-      </c>
-      <c r="B246" t="s">
-        <v>518</v>
-      </c>
-      <c r="C246" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" t="s">
-        <v>248</v>
-      </c>
-      <c r="B247" t="s">
-        <v>519</v>
-      </c>
-      <c r="C247" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" t="s">
-        <v>249</v>
-      </c>
-      <c r="B248" t="s">
-        <v>520</v>
-      </c>
-      <c r="C248" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" t="s">
-        <v>250</v>
-      </c>
-      <c r="B249" t="s">
-        <v>521</v>
-      </c>
-      <c r="C249" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" t="s">
-        <v>251</v>
-      </c>
-      <c r="B250" t="s">
-        <v>522</v>
-      </c>
-      <c r="C250" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" t="s">
-        <v>252</v>
-      </c>
-      <c r="B251" t="s">
-        <v>523</v>
-      </c>
-      <c r="C251" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" t="s">
-        <v>253</v>
-      </c>
-      <c r="B252" t="s">
-        <v>524</v>
-      </c>
-      <c r="C252" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" t="s">
-        <v>254</v>
-      </c>
-      <c r="B253" t="s">
-        <v>525</v>
-      </c>
-      <c r="C253" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" t="s">
-        <v>255</v>
-      </c>
-      <c r="B254" t="s">
-        <v>526</v>
-      </c>
-      <c r="C254" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" t="s">
-        <v>256</v>
-      </c>
-      <c r="B255" t="s">
-        <v>527</v>
-      </c>
-      <c r="C255" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" t="s">
-        <v>257</v>
-      </c>
-      <c r="B256" t="s">
-        <v>528</v>
-      </c>
-      <c r="C256" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" t="s">
-        <v>258</v>
-      </c>
-      <c r="B257" t="s">
-        <v>529</v>
-      </c>
-      <c r="C257" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" t="s">
-        <v>259</v>
-      </c>
-      <c r="B258" t="s">
-        <v>530</v>
-      </c>
-      <c r="C258" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" t="s">
-        <v>260</v>
-      </c>
-      <c r="B259" t="s">
-        <v>531</v>
-      </c>
-      <c r="C259" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" t="s">
-        <v>261</v>
-      </c>
-      <c r="B260" t="s">
-        <v>532</v>
-      </c>
-      <c r="C260" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" t="s">
-        <v>262</v>
-      </c>
-      <c r="B261" t="s">
-        <v>533</v>
-      </c>
-      <c r="C261" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" t="s">
-        <v>263</v>
-      </c>
-      <c r="B262" t="s">
-        <v>534</v>
-      </c>
-      <c r="C262" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" t="s">
-        <v>264</v>
-      </c>
-      <c r="B263" t="s">
-        <v>319</v>
-      </c>
-      <c r="C263" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" t="s">
-        <v>265</v>
-      </c>
-      <c r="B264" t="s">
-        <v>535</v>
-      </c>
-      <c r="C264" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" t="s">
-        <v>266</v>
-      </c>
-      <c r="B265" t="s">
-        <v>536</v>
-      </c>
-      <c r="C265" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" t="s">
-        <v>267</v>
-      </c>
-      <c r="B266" t="s">
-        <v>537</v>
-      </c>
-      <c r="C266" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" t="s">
-        <v>268</v>
-      </c>
-      <c r="B267" t="s">
-        <v>538</v>
-      </c>
-      <c r="C267" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" t="s">
-        <v>269</v>
-      </c>
-      <c r="B268" t="s">
-        <v>539</v>
-      </c>
-      <c r="C268" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" t="s">
-        <v>270</v>
-      </c>
-      <c r="B269" t="s">
-        <v>540</v>
-      </c>
-      <c r="C269" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" t="s">
-        <v>271</v>
-      </c>
-      <c r="B270" t="s">
-        <v>541</v>
-      </c>
-      <c r="C270" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" t="s">
-        <v>272</v>
-      </c>
-      <c r="B271" t="s">
-        <v>542</v>
-      </c>
-      <c r="C271" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" t="s">
-        <v>273</v>
-      </c>
-      <c r="B272" t="s">
-        <v>543</v>
-      </c>
-      <c r="C272" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" t="s">
-        <v>274</v>
-      </c>
-      <c r="B273" t="s">
-        <v>544</v>
-      </c>
-      <c r="C273" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" t="s">
-        <v>275</v>
-      </c>
-      <c r="B274" t="s">
-        <v>545</v>
-      </c>
-      <c r="C274" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" t="s">
-        <v>276</v>
-      </c>
-      <c r="B275" t="s">
-        <v>546</v>
-      </c>
-      <c r="C275" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" t="s">
-        <v>277</v>
-      </c>
-      <c r="B276" t="s">
-        <v>547</v>
-      </c>
-      <c r="C276" t="s">
-        <v>551</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
